--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1562.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1562.xlsx
@@ -351,10 +351,10 @@
         <v>1.401241855162464</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.280242001698874</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1562.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1562.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.401241855162464</v>
+        <v>0.9817726016044617</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.520613074302673</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.654296875</v>
       </c>
       <c r="D1">
-        <v>1.280242001698874</v>
+        <v>2.122264623641968</v>
       </c>
       <c r="E1">
-        <v>0.805992165221358</v>
+        <v>0.9412879347801208</v>
       </c>
     </row>
   </sheetData>
